--- a/input.xlsx
+++ b/input.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Sales Order Number</t>
   </si>
@@ -86,13 +86,16 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/1005003335129185.html</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32883178767.html?spm=a2g0o.order_list.order_list_main.60.21ef1802u6BABo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -122,6 +125,16 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -137,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -179,6 +192,25 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -187,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -215,6 +247,15 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -599,7 +640,27 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
+    <row r="9">
+      <c r="A9" s="9">
+        <v>134564.0</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:F9"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
     <hyperlink r:id="rId2" ref="C3"/>
@@ -608,7 +669,8 @@
     <hyperlink r:id="rId5" ref="C6"/>
     <hyperlink r:id="rId6" ref="C7"/>
     <hyperlink r:id="rId7" ref="C8"/>
+    <hyperlink r:id="rId8" ref="C9"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>